--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R207_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R207_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -709,10 +721,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -756,28 +768,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -802,28 +814,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1375,10 +1387,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1422,28 +1434,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1468,28 +1480,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2244,10 +2256,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J73" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2291,28 +2303,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2337,28 +2349,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3171,10 +3183,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="J105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3218,28 +3230,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3264,28 +3276,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3692,10 +3704,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="J123" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3739,28 +3751,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3785,28 +3797,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3923,10 +3935,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
+      <c r="J131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
